--- a/pred_ohlcv/54/2019-11-01 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 POWR ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,6 +431,9 @@
         <v>55.6466666666666</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -454,6 +462,9 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -480,6 +491,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -506,6 +520,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -610,6 +636,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -636,6 +665,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -662,6 +694,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,6 +752,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -740,6 +781,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -792,6 +839,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -844,6 +897,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -896,6 +955,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -948,6 +1013,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -974,6 +1042,9 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1000,6 +1071,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1026,6 +1100,9 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1052,6 +1129,9 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1078,6 +1158,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1104,6 +1187,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1130,6 +1216,9 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1156,6 +1245,9 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1182,6 +1274,9 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1208,6 +1303,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1234,6 +1332,9 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1260,6 +1361,9 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1286,6 +1390,9 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1312,6 +1419,9 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1338,6 +1448,9 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1364,6 +1477,9 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1390,6 +1506,9 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1416,6 +1535,9 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1442,6 +1564,9 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1468,6 +1593,9 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1494,6 +1622,9 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1520,6 +1651,9 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1546,6 +1680,9 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1572,6 +1709,9 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1598,6 +1738,9 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1624,6 +1767,9 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1650,6 +1796,9 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1676,6 +1825,9 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1702,6 +1854,9 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1728,6 +1883,9 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +1912,9 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1780,6 +1941,9 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1806,6 +1970,9 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1832,6 +1999,9 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1858,6 +2028,9 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1884,6 +2057,9 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1910,6 +2086,9 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1936,6 +2115,9 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1962,6 +2144,9 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1988,6 +2173,9 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2014,6 +2202,9 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2040,6 +2231,9 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2066,6 +2260,9 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2092,6 +2289,9 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2118,6 +2318,9 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2144,6 +2347,9 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2170,6 +2376,9 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2196,6 +2405,9 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2222,6 +2434,9 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2248,6 +2463,9 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2274,6 +2492,9 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2300,6 +2521,9 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2326,6 +2550,9 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2352,6 +2579,9 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2378,6 +2608,9 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2404,6 +2637,9 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2430,6 +2666,9 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2456,6 +2695,9 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2482,6 +2724,9 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2508,6 +2753,9 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2534,6 +2782,9 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2560,6 +2811,9 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2586,6 +2840,9 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2612,6 +2869,9 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2638,6 +2898,9 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2664,6 +2927,9 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2690,6 +2956,9 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2716,6 +2985,9 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2742,6 +3014,9 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2768,6 +3043,9 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2794,6 +3072,9 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2818,6 +3099,9 @@
         <v>55.50833333333326</v>
       </c>
       <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2844,6 +3128,9 @@
         <v>55.50166666666659</v>
       </c>
       <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2870,6 +3157,9 @@
         <v>55.49499999999993</v>
       </c>
       <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2896,6 +3186,9 @@
         <v>55.48333333333326</v>
       </c>
       <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2922,6 +3215,9 @@
         <v>55.4766666666666</v>
       </c>
       <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2948,552 +3244,9 @@
         <v>55.4766666666666</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D100" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E100" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F100" t="n">
-        <v>21217.0281</v>
-      </c>
-      <c r="G100" t="n">
-        <v>55.46833333333326</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C101" t="n">
-        <v>56</v>
-      </c>
-      <c r="D101" t="n">
-        <v>56</v>
-      </c>
-      <c r="E101" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="F101" t="n">
-        <v>10200</v>
-      </c>
-      <c r="G101" t="n">
-        <v>55.48333333333326</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="C102" t="n">
-        <v>57</v>
-      </c>
-      <c r="D102" t="n">
-        <v>57</v>
-      </c>
-      <c r="E102" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F102" t="n">
-        <v>62900.099</v>
-      </c>
-      <c r="G102" t="n">
-        <v>55.5166666666666</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E103" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G103" t="n">
-        <v>55.5216666666666</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C104" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D104" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E104" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F104" t="n">
-        <v>17345.2434</v>
-      </c>
-      <c r="G104" t="n">
-        <v>55.53499999999993</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C105" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E105" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F105" t="n">
-        <v>29949.5061</v>
-      </c>
-      <c r="G105" t="n">
-        <v>55.54999999999992</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E106" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F106" t="n">
-        <v>6012.6531</v>
-      </c>
-      <c r="G106" t="n">
-        <v>55.56666666666658</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C107" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D107" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E107" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1485125.3157</v>
-      </c>
-      <c r="G107" t="n">
-        <v>55.58499999999992</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C108" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D108" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E108" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1629428.9901</v>
-      </c>
-      <c r="G108" t="n">
-        <v>55.60499999999991</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C109" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E109" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1659492.2556</v>
-      </c>
-      <c r="G109" t="n">
-        <v>55.62333333333324</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C110" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D110" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E110" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1665504.9087</v>
-      </c>
-      <c r="G110" t="n">
-        <v>55.64166666666657</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D111" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1635441.6432</v>
-      </c>
-      <c r="G111" t="n">
-        <v>55.6599999999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D112" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E112" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1641454.2963</v>
-      </c>
-      <c r="G112" t="n">
-        <v>55.67666666666658</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C113" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D113" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E113" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1646391.5628</v>
-      </c>
-      <c r="G113" t="n">
-        <v>55.69499999999991</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D114" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E114" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1272522.0464</v>
-      </c>
-      <c r="G114" t="n">
-        <v>55.71333333333324</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C115" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>3000979.6025</v>
-      </c>
-      <c r="G115" t="n">
-        <v>55.7149999999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C116" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D116" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E116" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1804420.7052</v>
-      </c>
-      <c r="G116" t="n">
-        <v>55.71666666666657</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C117" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F117" t="n">
-        <v>3475137.9688</v>
-      </c>
-      <c r="G117" t="n">
-        <v>55.71833333333323</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2223625.7208</v>
-      </c>
-      <c r="G118" t="n">
-        <v>55.7199999999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C119" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="E119" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1580670.2092</v>
-      </c>
-      <c r="G119" t="n">
-        <v>55.72166666666656</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C120" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E120" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3050853.0715</v>
-      </c>
-      <c r="G120" t="n">
-        <v>55.73499999999989</v>
-      </c>
-      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
